--- a/polynomial_curve_plotting.xlsx
+++ b/polynomial_curve_plotting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.ginn\PycharmProjects\Weeds3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49C86C-979F-4311-A43C-A0D978F4839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0146267F-49E5-45DB-BE32-6456984E2EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{8E2BA3F0-9BED-438A-A7B5-F2A26A50C7A5}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -345,17 +345,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -371,7 +371,7 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -391,7 +391,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1840,62 +1840,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Widths</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2115,6 +2060,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pixel width at middle of image</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2179,6 +2179,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Camera</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> elevation angle</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2286,62 +2346,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>num of frames</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2543,6 +2548,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2607,6 +2667,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Camera elevation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> angle</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2714,67 +2834,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>av frames</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> be4 center</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2977,6 +3037,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frames before center</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3041,6 +3156,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Camera elevation angle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7581,15 +7751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
+      <xdr:colOff>333376</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7617,15 +7787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:colOff>971550</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7653,15 +7823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9330,7 +9500,7 @@
   <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+      <selection activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9437,7 +9607,7 @@
         <v>1.66667E-2</v>
       </c>
       <c r="F2" s="3">
-        <f>3840*E2</f>
+        <f t="shared" ref="F2:F31" si="0">3840*E2</f>
         <v>64.000128000000004</v>
       </c>
       <c r="G2" s="15">
@@ -9455,11 +9625,11 @@
         <v>66</v>
       </c>
       <c r="K2" s="16">
-        <f>(G2-C2)*100</f>
+        <f t="shared" ref="K2:K31" si="1">(G2-C2)*100</f>
         <v>2.1064000000000025</v>
       </c>
       <c r="L2" s="16">
-        <f>D2/K2</f>
+        <f t="shared" ref="L2:L31" si="2">D2/K2</f>
         <v>0.39560387390808815</v>
       </c>
       <c r="M2" s="52">
@@ -9470,11 +9640,11 @@
         <v>0.5</v>
       </c>
       <c r="O2" s="18">
-        <f>J2-F2</f>
+        <f t="shared" ref="O2:O31" si="3">J2-F2</f>
         <v>1.9998719999999963</v>
       </c>
       <c r="P2" s="38">
-        <f>F2+O2*L2</f>
+        <f t="shared" ref="P2:P31" si="4">F2+O2*L2</f>
         <v>64.79128511052032</v>
       </c>
       <c r="Q2" s="25">
@@ -9510,51 +9680,51 @@
         <v>0.48842600000000003</v>
       </c>
       <c r="D3" s="16">
-        <f t="shared" ref="D3:D31" si="0">(50%-C3)*100</f>
+        <f t="shared" ref="D3:D31" si="5">(50%-C3)*100</f>
         <v>1.1573999999999973</v>
       </c>
       <c r="E3" s="15">
         <v>3.1770800000000002E-2</v>
       </c>
       <c r="F3" s="3">
-        <f>3840*E3</f>
+        <f t="shared" si="0"/>
         <v>121.99987200000001</v>
       </c>
       <c r="G3" s="15">
         <v>0.53125</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" ref="H3:H31" si="1">(G3-50%)*100</f>
+        <f t="shared" ref="H3:H31" si="6">(G3-50%)*100</f>
         <v>3.125</v>
       </c>
       <c r="I3" s="15">
         <v>3.25521E-2</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J31" si="2">3840*I3</f>
+        <f t="shared" ref="J3:J31" si="7">3840*I3</f>
         <v>125.00006400000001</v>
       </c>
       <c r="K3" s="16">
-        <f>(G3-C3)*100</f>
+        <f t="shared" si="1"/>
         <v>4.2823999999999973</v>
       </c>
       <c r="L3" s="16">
-        <f>D3/K3</f>
+        <f t="shared" si="2"/>
         <v>0.27026900803287829</v>
       </c>
       <c r="M3" s="52">
-        <f t="shared" ref="M3:M31" si="3">B3+L3</f>
+        <f t="shared" ref="M3:M31" si="8">B3+L3</f>
         <v>117.27026900803288</v>
       </c>
       <c r="N3" s="17">
         <v>0.5</v>
       </c>
       <c r="O3" s="18">
-        <f>J3-F3</f>
+        <f t="shared" si="3"/>
         <v>3.0001919999999984</v>
       </c>
       <c r="P3" s="38">
-        <f>F3+O3*L3</f>
+        <f t="shared" si="4"/>
         <v>122.81073091574818</v>
       </c>
       <c r="Q3" s="25">
@@ -9567,15 +9737,15 @@
         <v>126</v>
       </c>
       <c r="T3" s="50">
-        <f t="shared" ref="T3:T31" si="4">S3-R3</f>
+        <f t="shared" ref="T3:T31" si="9">S3-R3</f>
         <v>26</v>
       </c>
       <c r="U3" s="51">
-        <f t="shared" ref="U3:U31" si="5">M3-R3</f>
+        <f t="shared" ref="U3:U31" si="10">M3-R3</f>
         <v>17.270269008032884</v>
       </c>
       <c r="V3" s="51">
-        <f t="shared" ref="V3:V31" si="6">S3-M3</f>
+        <f t="shared" ref="V3:V31" si="11">S3-M3</f>
         <v>8.7297309919671164</v>
       </c>
       <c r="X3">
@@ -9614,51 +9784,51 @@
         <v>0.49606499999999998</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.39350000000000218</v>
       </c>
       <c r="E4" s="5">
         <v>2.8125000000000001E-2</v>
       </c>
       <c r="F4" s="7">
-        <f>3840*E4</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="G4" s="5">
         <v>0.53009300000000004</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.0093000000000036</v>
       </c>
       <c r="I4" s="5">
         <v>2.8906299999999999E-2</v>
       </c>
       <c r="J4" s="7">
+        <f t="shared" si="7"/>
+        <v>111.000192</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4028000000000058</v>
+      </c>
+      <c r="L4" s="6">
         <f t="shared" si="2"/>
-        <v>111.000192</v>
-      </c>
-      <c r="K4" s="6">
-        <f>(G4-C4)*100</f>
-        <v>3.4028000000000058</v>
-      </c>
-      <c r="L4" s="6">
-        <f>D4/K4</f>
         <v>0.11564006112613187</v>
       </c>
       <c r="M4" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>177.11564006112613</v>
       </c>
       <c r="N4" s="8">
         <v>0.5</v>
       </c>
       <c r="O4" s="9">
-        <f>J4-F4</f>
+        <f t="shared" si="3"/>
         <v>3.0001919999999984</v>
       </c>
       <c r="P4" s="39">
-        <f>F4+O4*L4</f>
+        <f t="shared" si="4"/>
         <v>108.34694238627013</v>
       </c>
       <c r="Q4" s="27">
@@ -9671,15 +9841,15 @@
         <v>187</v>
       </c>
       <c r="T4" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="U4" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>13.115640061126129</v>
       </c>
       <c r="V4" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.884359938873871</v>
       </c>
       <c r="W4">
@@ -9737,51 +9907,51 @@
         <v>0.43171300000000001</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.8286999999999987</v>
       </c>
       <c r="E5" s="15">
         <v>5.1041700000000002E-2</v>
       </c>
       <c r="F5" s="3">
-        <f>3840*E5</f>
+        <f t="shared" si="0"/>
         <v>196.00012800000002</v>
       </c>
       <c r="G5" s="15">
         <v>0.54884299999999997</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.884299999999997</v>
       </c>
       <c r="I5" s="15">
         <v>5.8333299999999998E-2</v>
       </c>
       <c r="J5" s="3">
+        <f t="shared" si="7"/>
+        <v>223.99987199999998</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="1"/>
+        <v>11.712999999999996</v>
+      </c>
+      <c r="L5" s="16">
         <f t="shared" si="2"/>
-        <v>223.99987199999998</v>
-      </c>
-      <c r="K5" s="16">
-        <f>(G5-C5)*100</f>
-        <v>11.712999999999996</v>
-      </c>
-      <c r="L5" s="16">
-        <f>D5/K5</f>
         <v>0.58300179287970644</v>
       </c>
       <c r="M5" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>59.583001792879706</v>
       </c>
       <c r="N5" s="17">
         <v>0.5</v>
       </c>
       <c r="O5" s="18">
-        <f>J5-F5</f>
+        <f t="shared" si="3"/>
         <v>27.999743999999964</v>
       </c>
       <c r="P5" s="38">
-        <f>F5+O5*L5</f>
+        <f t="shared" si="4"/>
         <v>212.3240289521728</v>
       </c>
       <c r="Q5" s="25">
@@ -9794,15 +9964,15 @@
         <v>66</v>
       </c>
       <c r="T5" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="U5" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10.583001792879706</v>
       </c>
       <c r="V5" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.4169982071202938</v>
       </c>
       <c r="W5">
@@ -9860,51 +10030,51 @@
         <v>0.47916700000000001</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.083299999999999</v>
       </c>
       <c r="E6" s="15">
         <v>5.1302100000000003E-2</v>
       </c>
       <c r="F6" s="3">
-        <f>3840*E6</f>
+        <f t="shared" si="0"/>
         <v>197.00006400000001</v>
       </c>
       <c r="G6" s="15">
         <v>0.59814800000000001</v>
       </c>
       <c r="H6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.8148000000000017</v>
       </c>
       <c r="I6" s="15">
         <v>5.4947900000000001E-2</v>
       </c>
       <c r="J6" s="3">
+        <f t="shared" si="7"/>
+        <v>210.99993599999999</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="1"/>
+        <v>11.898099999999999</v>
+      </c>
+      <c r="L6" s="16">
         <f t="shared" si="2"/>
-        <v>210.99993599999999</v>
-      </c>
-      <c r="K6" s="16">
-        <f>(G6-C6)*100</f>
-        <v>11.898099999999999</v>
-      </c>
-      <c r="L6" s="16">
-        <f>D6/K6</f>
         <v>0.17509518326455478</v>
       </c>
       <c r="M6" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>110.17509518326456</v>
       </c>
       <c r="N6" s="17">
         <v>0.5</v>
       </c>
       <c r="O6" s="18">
-        <f>J6-F6</f>
+        <f t="shared" si="3"/>
         <v>13.999871999999982</v>
       </c>
       <c r="P6" s="38">
-        <f>F6+O6*L6</f>
+        <f t="shared" si="4"/>
         <v>199.45137415352031</v>
       </c>
       <c r="Q6" s="25">
@@ -9917,15 +10087,15 @@
         <v>116</v>
       </c>
       <c r="T6" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="U6" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.1750951832645598</v>
       </c>
       <c r="V6" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.8249048167354402</v>
       </c>
       <c r="W6">
@@ -9983,51 +10153,51 @@
         <v>0.45509300000000003</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.4906999999999977</v>
       </c>
       <c r="E7" s="15">
         <v>4.55729E-2</v>
       </c>
       <c r="F7" s="3">
-        <f>3840*E7</f>
+        <f t="shared" si="0"/>
         <v>174.99993599999999</v>
       </c>
       <c r="G7" s="15">
         <v>0.53703699999999999</v>
       </c>
       <c r="H7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.7036999999999987</v>
       </c>
       <c r="I7" s="15">
         <v>4.8437500000000001E-2</v>
       </c>
       <c r="J7" s="3">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1943999999999964</v>
+      </c>
+      <c r="L7" s="16">
         <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="K7" s="16">
-        <f>(G7-C7)*100</f>
-        <v>8.1943999999999964</v>
-      </c>
-      <c r="L7" s="16">
-        <f>D7/K7</f>
         <v>0.54802059943375958</v>
       </c>
       <c r="M7" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>162.54802059943376</v>
       </c>
       <c r="N7" s="17">
         <v>0.5</v>
       </c>
       <c r="O7" s="18">
-        <f>J7-F7</f>
+        <f t="shared" si="3"/>
         <v>11.000064000000009</v>
       </c>
       <c r="P7" s="38">
-        <f>F7+O7*L7</f>
+        <f t="shared" si="4"/>
         <v>181.02819766708973</v>
       </c>
       <c r="Q7" s="25">
@@ -10040,15 +10210,15 @@
         <v>169</v>
       </c>
       <c r="T7" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="U7" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10.548020599433755</v>
       </c>
       <c r="V7" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.4519794005662447</v>
       </c>
       <c r="X7" s="1"/>
@@ -10097,51 +10267,51 @@
         <v>0.421759</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7.8241000000000005</v>
       </c>
       <c r="E8" s="10">
         <v>5.0260399999999997E-2</v>
       </c>
       <c r="F8" s="12">
-        <f>3840*E8</f>
+        <f t="shared" si="0"/>
         <v>192.99993599999999</v>
       </c>
       <c r="G8" s="10">
         <v>0.50254600000000005</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.25460000000000482</v>
       </c>
       <c r="I8" s="10">
         <v>5.5208300000000002E-2</v>
       </c>
       <c r="J8" s="12">
+        <f t="shared" si="7"/>
+        <v>211.99987200000001</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="1"/>
+        <v>8.0787000000000049</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="2"/>
-        <v>211.99987200000001</v>
-      </c>
-      <c r="K8" s="11">
-        <f>(G8-C8)*100</f>
-        <v>8.0787000000000049</v>
-      </c>
-      <c r="L8" s="11">
-        <f>D8/K8</f>
         <v>0.96848502853181773</v>
       </c>
       <c r="M8" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>55.968485028531816</v>
       </c>
       <c r="N8" s="13">
         <v>0.5</v>
       </c>
       <c r="O8" s="14">
-        <f>J8-F8</f>
+        <f t="shared" si="3"/>
         <v>18.999936000000019</v>
       </c>
       <c r="P8" s="40">
-        <f>F8+O8*L8</f>
+        <f t="shared" si="4"/>
         <v>211.40108955906271</v>
       </c>
       <c r="Q8" s="29">
@@ -10154,15 +10324,15 @@
         <v>62</v>
       </c>
       <c r="T8" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="U8" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9684850285318163</v>
       </c>
       <c r="V8" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.0315149714681837</v>
       </c>
       <c r="X8" s="1"/>
@@ -10211,51 +10381,51 @@
         <v>0.47546300000000002</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.4536999999999978</v>
       </c>
       <c r="E9" s="15">
         <v>6.3281299999999999E-2</v>
       </c>
       <c r="F9" s="3">
-        <f>3840*E9</f>
+        <f t="shared" si="0"/>
         <v>243.000192</v>
       </c>
       <c r="G9" s="15">
         <v>0.56921299999999997</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.9212999999999969</v>
       </c>
       <c r="I9" s="15">
         <v>6.4583299999999996E-2</v>
       </c>
       <c r="J9" s="3">
+        <f t="shared" si="7"/>
+        <v>247.99987199999998</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="1"/>
+        <v>9.3749999999999947</v>
+      </c>
+      <c r="L9" s="16">
         <f t="shared" si="2"/>
-        <v>247.99987199999998</v>
-      </c>
-      <c r="K9" s="16">
-        <f>(G9-C9)*100</f>
-        <v>9.3749999999999947</v>
-      </c>
-      <c r="L9" s="16">
-        <f>D9/K9</f>
         <v>0.26172799999999991</v>
       </c>
       <c r="M9" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>99.261728000000005</v>
       </c>
       <c r="N9" s="17">
         <v>0.5</v>
       </c>
       <c r="O9" s="18">
-        <f>J9-F9</f>
+        <f t="shared" si="3"/>
         <v>4.9996799999999837</v>
       </c>
       <c r="P9" s="38">
-        <f>F9+O9*L9</f>
+        <f t="shared" si="4"/>
         <v>244.30874824704</v>
       </c>
       <c r="Q9" s="25">
@@ -10268,15 +10438,15 @@
         <v>108</v>
       </c>
       <c r="T9" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="U9" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>13.261728000000005</v>
       </c>
       <c r="V9" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.7382719999999949</v>
       </c>
       <c r="X9" s="1"/>
@@ -10325,51 +10495,51 @@
         <v>0.369676</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>13.032399999999999</v>
       </c>
       <c r="E10" s="5">
         <v>5.6510400000000002E-2</v>
       </c>
       <c r="F10" s="7">
-        <f>3840*E10</f>
+        <f t="shared" si="0"/>
         <v>216.99993600000002</v>
       </c>
       <c r="G10" s="5">
         <v>0.50347200000000003</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.34720000000000306</v>
       </c>
       <c r="I10" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="J10" s="7">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="1"/>
+        <v>13.379600000000003</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K10" s="6">
-        <f>(G10-C10)*100</f>
-        <v>13.379600000000003</v>
-      </c>
-      <c r="L10" s="6">
-        <f>D10/K10</f>
         <v>0.97405004633920267</v>
       </c>
       <c r="M10" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>139.97405004633922</v>
       </c>
       <c r="N10" s="8">
         <v>0.5</v>
       </c>
       <c r="O10" s="9">
-        <f>J10-F10</f>
+        <f t="shared" si="3"/>
         <v>23.000063999999981</v>
       </c>
       <c r="P10" s="39">
-        <f>F10+O10*L10</f>
+        <f t="shared" si="4"/>
         <v>239.40314940500463</v>
       </c>
       <c r="Q10" s="27">
@@ -10382,15 +10552,15 @@
         <v>150</v>
       </c>
       <c r="T10" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="U10" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10.974050046339215</v>
       </c>
       <c r="V10" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10.025949953660785</v>
       </c>
       <c r="X10" s="1"/>
@@ -10439,51 +10609,51 @@
         <v>0.49652800000000002</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.34719999999999751</v>
       </c>
       <c r="E11" s="15">
         <v>3.6458299999999999E-2</v>
       </c>
       <c r="F11" s="3">
-        <f>3840*E11</f>
+        <f t="shared" si="0"/>
         <v>139.99987199999998</v>
       </c>
       <c r="G11" s="15">
         <v>0.55370399999999997</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.3703999999999974</v>
       </c>
       <c r="I11" s="15">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="J11" s="3">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
+        <v>5.7175999999999947</v>
+      </c>
+      <c r="L11" s="16">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="K11" s="16">
-        <f>(G11-C11)*100</f>
-        <v>5.7175999999999947</v>
-      </c>
-      <c r="L11" s="16">
-        <f>D11/K11</f>
         <v>6.0724779627815487E-2</v>
       </c>
       <c r="M11" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>53.060724779627819</v>
       </c>
       <c r="N11" s="17">
         <v>0.5</v>
       </c>
       <c r="O11" s="18">
-        <f>J11-F11</f>
+        <f t="shared" si="3"/>
         <v>4.0001280000000179</v>
       </c>
       <c r="P11" s="38">
-        <f>F11+O11*L11</f>
+        <f t="shared" si="4"/>
         <v>140.24277889128302</v>
       </c>
       <c r="Q11" s="25">
@@ -10496,15 +10666,15 @@
         <v>61</v>
       </c>
       <c r="T11" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="U11" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12.060724779627819</v>
       </c>
       <c r="V11" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.9392752203721813</v>
       </c>
       <c r="X11" s="1"/>
@@ -10553,51 +10723,51 @@
         <v>0.46643499999999999</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.3565000000000014</v>
       </c>
       <c r="E12" s="15">
         <v>3.4114600000000002E-2</v>
       </c>
       <c r="F12" s="3">
-        <f>3840*E12</f>
+        <f t="shared" si="0"/>
         <v>131.00006400000001</v>
       </c>
       <c r="G12" s="15">
         <v>0.52800899999999995</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.8008999999999951</v>
       </c>
       <c r="I12" s="15">
         <v>3.67187E-2</v>
       </c>
       <c r="J12" s="3">
+        <f t="shared" si="7"/>
+        <v>140.999808</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="1"/>
+        <v>6.1573999999999964</v>
+      </c>
+      <c r="L12" s="16">
         <f t="shared" si="2"/>
-        <v>140.999808</v>
-      </c>
-      <c r="K12" s="16">
-        <f>(G12-C12)*100</f>
-        <v>6.1573999999999964</v>
-      </c>
-      <c r="L12" s="16">
-        <f>D12/K12</f>
         <v>0.54511644525286695</v>
       </c>
       <c r="M12" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>105.54511644525287</v>
       </c>
       <c r="N12" s="17">
         <v>0.5</v>
       </c>
       <c r="O12" s="18">
-        <f>J12-F12</f>
+        <f t="shared" si="3"/>
         <v>9.9997439999999926</v>
       </c>
       <c r="P12" s="38">
-        <f>F12+O12*L12</f>
+        <f t="shared" si="4"/>
         <v>136.45108890271868</v>
       </c>
       <c r="Q12" s="25">
@@ -10610,15 +10780,15 @@
         <v>111</v>
       </c>
       <c r="T12" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="U12" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>19.545116445252873</v>
       </c>
       <c r="V12" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.4548835547471271</v>
       </c>
       <c r="X12" s="1"/>
@@ -10667,51 +10837,51 @@
         <v>0.46296300000000001</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.7036999999999987</v>
       </c>
       <c r="E13" s="15">
         <v>2.5781200000000001E-2</v>
       </c>
       <c r="F13" s="3">
-        <f>3840*E13</f>
+        <f t="shared" si="0"/>
         <v>98.999808000000002</v>
       </c>
       <c r="G13" s="15">
         <v>0.51782399999999995</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.7823999999999951</v>
       </c>
       <c r="I13" s="15">
         <v>2.6562499999999999E-2</v>
       </c>
       <c r="J13" s="3">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="1"/>
+        <v>5.4860999999999933</v>
+      </c>
+      <c r="L13" s="16">
         <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="K13" s="16">
-        <f>(G13-C13)*100</f>
-        <v>5.4860999999999933</v>
-      </c>
-      <c r="L13" s="16">
-        <f>D13/K13</f>
         <v>0.67510617743023338</v>
       </c>
       <c r="M13" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>182.67510617743022</v>
       </c>
       <c r="N13" s="17">
         <v>0.5</v>
       </c>
       <c r="O13" s="18">
-        <f>J13-F13</f>
+        <f t="shared" si="3"/>
         <v>3.0001919999999984</v>
       </c>
       <c r="P13" s="38">
-        <f>F13+O13*L13</f>
+        <f t="shared" si="4"/>
         <v>101.02525615267676</v>
       </c>
       <c r="Q13" s="25">
@@ -10724,15 +10894,15 @@
         <v>191</v>
       </c>
       <c r="T13" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="U13" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15.675106177430223</v>
       </c>
       <c r="V13" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.3248938225697771</v>
       </c>
       <c r="X13" s="1"/>
@@ -10781,51 +10951,51 @@
         <v>0.44467600000000002</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.5323999999999982</v>
       </c>
       <c r="E14" s="10">
         <v>4.8437500000000001E-2</v>
       </c>
       <c r="F14" s="12">
-        <f>3840*E14</f>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="G14" s="10">
         <v>0.52037</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0369999999999999</v>
       </c>
       <c r="I14" s="10">
         <v>5.70313E-2</v>
       </c>
       <c r="J14" s="12">
+        <f t="shared" si="7"/>
+        <v>219.000192</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>7.5693999999999981</v>
+      </c>
+      <c r="L14" s="11">
         <f t="shared" si="2"/>
-        <v>219.000192</v>
-      </c>
-      <c r="K14" s="11">
-        <f>(G14-C14)*100</f>
-        <v>7.5693999999999981</v>
-      </c>
-      <c r="L14" s="11">
-        <f>D14/K14</f>
         <v>0.73089016302481036</v>
       </c>
       <c r="M14" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20.73089016302481</v>
       </c>
       <c r="N14" s="13">
         <v>0.5</v>
       </c>
       <c r="O14" s="14">
-        <f>J14-F14</f>
+        <f t="shared" si="3"/>
         <v>33.000191999999998</v>
       </c>
       <c r="P14" s="40">
-        <f>F14+O14*L14</f>
+        <f t="shared" si="4"/>
         <v>210.11951571073004</v>
       </c>
       <c r="Q14" s="29">
@@ -10838,15 +11008,15 @@
         <v>29</v>
       </c>
       <c r="T14" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="U14" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12.73089016302481</v>
       </c>
       <c r="V14" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.2691098369751899</v>
       </c>
       <c r="X14" s="1"/>
@@ -10882,51 +11052,51 @@
         <v>0.42430600000000002</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7.5693999999999981</v>
       </c>
       <c r="E15" s="15">
         <v>4.6614599999999999E-2</v>
       </c>
       <c r="F15" s="3">
-        <f>3840*E15</f>
+        <f t="shared" si="0"/>
         <v>179.00006400000001</v>
       </c>
       <c r="G15" s="15">
         <v>0.51875000000000004</v>
       </c>
       <c r="H15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8750000000000044</v>
       </c>
       <c r="I15" s="15">
         <v>5.33854E-2</v>
       </c>
       <c r="J15" s="3">
+        <f t="shared" si="7"/>
+        <v>204.99993599999999</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="1"/>
+        <v>9.4444000000000035</v>
+      </c>
+      <c r="L15" s="16">
         <f t="shared" si="2"/>
-        <v>204.99993599999999</v>
-      </c>
-      <c r="K15" s="16">
-        <f>(G15-C15)*100</f>
-        <v>9.4444000000000035</v>
-      </c>
-      <c r="L15" s="16">
-        <f>D15/K15</f>
         <v>0.80146965397484171</v>
       </c>
       <c r="M15" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>93.801469653974848</v>
       </c>
       <c r="N15" s="17">
         <v>0.5</v>
       </c>
       <c r="O15" s="18">
-        <f>J15-F15</f>
+        <f t="shared" si="3"/>
         <v>25.999871999999982</v>
       </c>
       <c r="P15" s="38">
-        <f>F15+O15*L15</f>
+        <f t="shared" si="4"/>
         <v>199.83817241523016</v>
       </c>
       <c r="Q15" s="25">
@@ -10939,15 +11109,15 @@
         <v>101</v>
       </c>
       <c r="T15" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="U15" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>16.801469653974848</v>
       </c>
       <c r="V15" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.1985303460251515</v>
       </c>
       <c r="X15" s="1"/>
@@ -10983,51 +11153,51 @@
         <v>0.46041700000000002</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.9582999999999977</v>
       </c>
       <c r="E16" s="5">
         <v>4.2708299999999998E-2</v>
       </c>
       <c r="F16" s="7">
-        <f>3840*E16</f>
+        <f t="shared" si="0"/>
         <v>163.99987199999998</v>
       </c>
       <c r="G16" s="5">
         <v>0.51365700000000003</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.365700000000003</v>
       </c>
       <c r="I16" s="5">
         <v>4.6354199999999998E-2</v>
       </c>
       <c r="J16" s="7">
+        <f t="shared" si="7"/>
+        <v>178.00012799999999</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>5.3240000000000007</v>
+      </c>
+      <c r="L16" s="6">
         <f t="shared" si="2"/>
-        <v>178.00012799999999</v>
-      </c>
-      <c r="K16" s="6">
-        <f>(G16-C16)*100</f>
-        <v>5.3240000000000007</v>
-      </c>
-      <c r="L16" s="6">
-        <f>D16/K16</f>
         <v>0.74348234410217828</v>
       </c>
       <c r="M16" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>168.74348234410218</v>
       </c>
       <c r="N16" s="8">
         <v>0.5</v>
       </c>
       <c r="O16" s="9">
-        <f>J16-F16</f>
+        <f t="shared" si="3"/>
         <v>14.000256000000007</v>
       </c>
       <c r="P16" s="39">
-        <f>F16+O16*L16</f>
+        <f t="shared" si="4"/>
         <v>174.40881514891058</v>
       </c>
       <c r="Q16" s="27">
@@ -11040,15 +11210,15 @@
         <v>177</v>
       </c>
       <c r="T16" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="U16" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11.743482344102176</v>
       </c>
       <c r="V16" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.2565176558978237</v>
       </c>
       <c r="AE16">
@@ -11069,51 +11239,51 @@
         <v>0.44745400000000002</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.2545999999999982</v>
       </c>
       <c r="E17" s="15">
         <v>3.4114600000000002E-2</v>
       </c>
       <c r="F17" s="3">
-        <f>3840*E17</f>
+        <f t="shared" si="0"/>
         <v>131.00006400000001</v>
       </c>
       <c r="G17" s="15">
         <v>0.52685199999999999</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.6851999999999987</v>
       </c>
       <c r="I17" s="15">
         <v>3.6979199999999997E-2</v>
       </c>
       <c r="J17" s="3">
+        <f t="shared" si="7"/>
+        <v>142.00012799999999</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9397999999999964</v>
+      </c>
+      <c r="L17" s="16">
         <f t="shared" si="2"/>
-        <v>142.00012799999999</v>
-      </c>
-      <c r="K17" s="16">
-        <f>(G17-C17)*100</f>
-        <v>7.9397999999999964</v>
-      </c>
-      <c r="L17" s="16">
-        <f>D17/K17</f>
         <v>0.66180508325146736</v>
       </c>
       <c r="M17" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>51.661805083251465</v>
       </c>
       <c r="N17" s="17">
         <v>0.5</v>
       </c>
       <c r="O17" s="18">
-        <f>J17-F17</f>
+        <f t="shared" si="3"/>
         <v>11.000063999999981</v>
       </c>
       <c r="P17" s="38">
-        <f>F17+O17*L17</f>
+        <f t="shared" si="4"/>
         <v>138.27996227129145</v>
       </c>
       <c r="Q17" s="25">
@@ -11126,15 +11296,15 @@
         <v>59</v>
       </c>
       <c r="T17" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="U17" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10.661805083251465</v>
       </c>
       <c r="V17" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.3381949167485345</v>
       </c>
     </row>
@@ -11149,51 +11319,51 @@
         <v>0.49675900000000001</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.32409999999999939</v>
       </c>
       <c r="E18" s="15">
         <v>3.7239599999999998E-2</v>
       </c>
       <c r="F18" s="3">
-        <f>3840*E18</f>
+        <f t="shared" si="0"/>
         <v>143.00006399999998</v>
       </c>
       <c r="G18" s="15">
         <v>0.57245400000000002</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7.2454000000000018</v>
       </c>
       <c r="I18" s="15">
         <v>3.8541699999999998E-2</v>
       </c>
       <c r="J18" s="3">
+        <f t="shared" si="7"/>
+        <v>148.00012799999999</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="1"/>
+        <v>7.5695000000000014</v>
+      </c>
+      <c r="L18" s="16">
         <f t="shared" si="2"/>
-        <v>148.00012799999999</v>
-      </c>
-      <c r="K18" s="16">
-        <f>(G18-C18)*100</f>
-        <v>7.5695000000000014</v>
-      </c>
-      <c r="L18" s="16">
-        <f>D18/K18</f>
         <v>4.2816566483915623E-2</v>
       </c>
       <c r="M18" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>103.04281656648392</v>
       </c>
       <c r="N18" s="17">
         <v>0.5</v>
       </c>
       <c r="O18" s="18">
-        <f>J18-F18</f>
+        <f t="shared" si="3"/>
         <v>5.0000640000000089</v>
       </c>
       <c r="P18" s="38">
-        <f>F18+O18*L18</f>
+        <f t="shared" si="4"/>
         <v>143.21414957267982</v>
       </c>
       <c r="Q18" s="25">
@@ -11206,15 +11376,15 @@
         <v>111</v>
       </c>
       <c r="T18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="U18" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>17.042816566483921</v>
       </c>
       <c r="V18" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.9571834335160787</v>
       </c>
     </row>
@@ -11229,51 +11399,51 @@
         <v>0.48842600000000003</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1573999999999973</v>
       </c>
       <c r="E19" s="15">
         <v>3.2031200000000003E-2</v>
       </c>
       <c r="F19" s="3">
-        <f>3840*E19</f>
+        <f t="shared" si="0"/>
         <v>122.99980800000002</v>
       </c>
       <c r="G19" s="15">
         <v>0.54513900000000004</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.513900000000004</v>
       </c>
       <c r="I19" s="15">
         <v>3.5156199999999999E-2</v>
       </c>
       <c r="J19" s="3">
+        <f t="shared" si="7"/>
+        <v>134.999808</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="1"/>
+        <v>5.6713000000000013</v>
+      </c>
+      <c r="L19" s="16">
         <f t="shared" si="2"/>
-        <v>134.999808</v>
-      </c>
-      <c r="K19" s="16">
-        <f>(G19-C19)*100</f>
-        <v>5.6713000000000013</v>
-      </c>
-      <c r="L19" s="16">
-        <f>D19/K19</f>
         <v>0.20408019325375082</v>
       </c>
       <c r="M19" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>170.20408019325376</v>
       </c>
       <c r="N19" s="17">
         <v>0.5</v>
       </c>
       <c r="O19" s="18">
-        <f>J19-F19</f>
+        <f t="shared" si="3"/>
         <v>11.999999999999986</v>
       </c>
       <c r="P19" s="38">
-        <f>F19+O19*L19</f>
+        <f t="shared" si="4"/>
         <v>125.44877031904502</v>
       </c>
       <c r="Q19" s="25">
@@ -11286,15 +11456,15 @@
         <v>180</v>
       </c>
       <c r="T19" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="U19" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>17.204080193253759</v>
       </c>
       <c r="V19" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.795919806746241</v>
       </c>
     </row>
@@ -11309,51 +11479,51 @@
         <v>0.46319399999999999</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.6806000000000005</v>
       </c>
       <c r="E20" s="10">
         <v>3.5677100000000003E-2</v>
       </c>
       <c r="F20" s="12">
-        <f>3840*E20</f>
+        <f t="shared" si="0"/>
         <v>137.00006400000001</v>
       </c>
       <c r="G20" s="10">
         <v>0.51921300000000004</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.9213000000000036</v>
       </c>
       <c r="I20" s="10">
         <v>3.8541699999999998E-2</v>
       </c>
       <c r="J20" s="12">
+        <f t="shared" si="7"/>
+        <v>148.00012799999999</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>5.6019000000000041</v>
+      </c>
+      <c r="L20" s="11">
         <f t="shared" si="2"/>
-        <v>148.00012799999999</v>
-      </c>
-      <c r="K20" s="11">
-        <f>(G20-C20)*100</f>
-        <v>5.6019000000000041</v>
-      </c>
-      <c r="L20" s="11">
-        <f>D20/K20</f>
         <v>0.65702708009782351</v>
       </c>
       <c r="M20" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>19.657027080097823</v>
       </c>
       <c r="N20" s="13">
         <v>0.5</v>
       </c>
       <c r="O20" s="14">
-        <f>J20-F20</f>
+        <f t="shared" si="3"/>
         <v>11.000063999999981</v>
       </c>
       <c r="P20" s="40">
-        <f>F20+O20*L20</f>
+        <f t="shared" si="4"/>
         <v>144.22740393080917</v>
       </c>
       <c r="Q20" s="29">
@@ -11366,15 +11536,15 @@
         <v>26</v>
       </c>
       <c r="T20" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="U20" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11.657027080097823</v>
       </c>
       <c r="V20" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.3429729199021772</v>
       </c>
     </row>
@@ -11389,51 +11559,51 @@
         <v>0.42893500000000001</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7.1064999999999987</v>
       </c>
       <c r="E21" s="15">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="F21" s="3">
-        <f>3840*E21</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="G21" s="15">
         <v>0.506019</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.60189999999999966</v>
       </c>
       <c r="I21" s="15">
         <v>4.0885400000000002E-2</v>
       </c>
       <c r="J21" s="3">
+        <f t="shared" si="7"/>
+        <v>156.99993600000002</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="1"/>
+        <v>7.7083999999999984</v>
+      </c>
+      <c r="L21" s="16">
         <f t="shared" si="2"/>
-        <v>156.99993600000002</v>
-      </c>
-      <c r="K21" s="16">
-        <f>(G21-C21)*100</f>
-        <v>7.7083999999999984</v>
-      </c>
-      <c r="L21" s="16">
-        <f>D21/K21</f>
         <v>0.92191635099372116</v>
       </c>
       <c r="M21" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>86.921916350993726</v>
       </c>
       <c r="N21" s="17">
         <v>0.5</v>
       </c>
       <c r="O21" s="18">
-        <f>J21-F21</f>
+        <f t="shared" si="3"/>
         <v>12.999936000000019</v>
       </c>
       <c r="P21" s="38">
-        <f>F21+O21*L21</f>
+        <f t="shared" si="4"/>
         <v>155.98485356027192</v>
       </c>
       <c r="Q21" s="25">
@@ -11446,15 +11616,15 @@
         <v>96</v>
       </c>
       <c r="T21" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="U21" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14.921916350993726</v>
       </c>
       <c r="V21" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.078083649006274</v>
       </c>
     </row>
@@ -11469,51 +11639,51 @@
         <v>0.49143500000000001</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.85649999999999893</v>
       </c>
       <c r="E22" s="5">
         <v>3.8802099999999999E-2</v>
       </c>
       <c r="F22" s="7">
-        <f>3840*E22</f>
+        <f t="shared" si="0"/>
         <v>149.00006400000001</v>
       </c>
       <c r="G22" s="5">
         <v>0.546296</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.6295999999999999</v>
       </c>
       <c r="I22" s="5">
         <v>4.5052099999999998E-2</v>
       </c>
       <c r="J22" s="7">
+        <f t="shared" si="7"/>
+        <v>173.00006399999998</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4860999999999995</v>
+      </c>
+      <c r="L22" s="6">
         <f t="shared" si="2"/>
-        <v>173.00006399999998</v>
-      </c>
-      <c r="K22" s="6">
-        <f>(G22-C22)*100</f>
-        <v>5.4860999999999995</v>
-      </c>
-      <c r="L22" s="6">
-        <f>D22/K22</f>
         <v>0.15612183518346348</v>
       </c>
       <c r="M22" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>156.15612183518346</v>
       </c>
       <c r="N22" s="8">
         <v>0.5</v>
       </c>
       <c r="O22" s="9">
-        <f>J22-F22</f>
+        <f t="shared" si="3"/>
         <v>23.999999999999972</v>
       </c>
       <c r="P22" s="39">
-        <f>F22+O22*L22</f>
+        <f t="shared" si="4"/>
         <v>152.74698804440314</v>
       </c>
       <c r="Q22" s="27">
@@ -11526,15 +11696,15 @@
         <v>164</v>
       </c>
       <c r="T22" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="U22" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15.156121835183455</v>
       </c>
       <c r="V22" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.8438781648165445</v>
       </c>
     </row>
@@ -11549,21 +11719,21 @@
         <v>0.48912</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0880000000000001</v>
       </c>
       <c r="E23" s="15">
         <v>4.6614599999999999E-2</v>
       </c>
       <c r="F23" s="3">
-        <f>3840*E23</f>
+        <f t="shared" si="0"/>
         <v>179.00006400000001</v>
       </c>
       <c r="G23" s="15">
         <v>0.6</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999982</v>
       </c>
       <c r="I23" s="15">
@@ -11574,26 +11744,26 @@
         <v>198.99993599999999</v>
       </c>
       <c r="K23" s="16">
-        <f>(G23-C23)*100</f>
+        <f t="shared" si="1"/>
         <v>11.087999999999997</v>
       </c>
       <c r="L23" s="16">
-        <f>D23/K23</f>
+        <f t="shared" si="2"/>
         <v>9.8124098124098155E-2</v>
       </c>
       <c r="M23" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27.098124098124099</v>
       </c>
       <c r="N23" s="17">
         <v>0.5</v>
       </c>
       <c r="O23" s="18">
-        <f>J23-F23</f>
+        <f t="shared" si="3"/>
         <v>19.999871999999982</v>
       </c>
       <c r="P23" s="38">
-        <f>F23+O23*L23</f>
+        <f t="shared" si="4"/>
         <v>180.96253340259742</v>
       </c>
       <c r="Q23" s="25">
@@ -11606,15 +11776,15 @@
         <v>33</v>
       </c>
       <c r="T23" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="U23" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12.098124098124099</v>
       </c>
       <c r="V23" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.9018759018759006</v>
       </c>
     </row>
@@ -11629,51 +11799,51 @@
         <v>0.412269</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.7730999999999995</v>
       </c>
       <c r="E24" s="15">
         <v>4.81771E-2</v>
       </c>
       <c r="F24" s="3">
-        <f>3840*E24</f>
+        <f t="shared" si="0"/>
         <v>185.00006400000001</v>
       </c>
       <c r="G24" s="15">
         <v>0.53217599999999998</v>
       </c>
       <c r="H24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.2175999999999982</v>
       </c>
       <c r="I24" s="15">
         <v>5.36458E-2</v>
       </c>
       <c r="J24" s="3">
+        <f t="shared" si="7"/>
+        <v>205.99987200000001</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="1"/>
+        <v>11.990699999999999</v>
+      </c>
+      <c r="L24" s="16">
         <f t="shared" si="2"/>
-        <v>205.99987200000001</v>
-      </c>
-      <c r="K24" s="16">
-        <f>(G24-C24)*100</f>
-        <v>11.990699999999999</v>
-      </c>
-      <c r="L24" s="16">
-        <f>D24/K24</f>
         <v>0.73165870216084139</v>
       </c>
       <c r="M24" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>99.731658702160843</v>
       </c>
       <c r="N24" s="17">
         <v>0.5</v>
       </c>
       <c r="O24" s="18">
-        <f>J24-F24</f>
+        <f t="shared" si="3"/>
         <v>20.999808000000002</v>
       </c>
       <c r="P24" s="38">
-        <f>F24+O24*L24</f>
+        <f t="shared" si="4"/>
         <v>200.36475626690685</v>
       </c>
       <c r="Q24" s="25">
@@ -11686,15 +11856,15 @@
         <v>106</v>
       </c>
       <c r="T24" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="U24" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>13.731658702160843</v>
       </c>
       <c r="V24" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.2683412978391573</v>
       </c>
     </row>
@@ -11709,51 +11879,51 @@
         <v>0.41782399999999997</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.2176000000000027</v>
       </c>
       <c r="E25" s="15">
         <v>4.7656200000000003E-2</v>
       </c>
       <c r="F25" s="3">
-        <f>3840*E25</f>
+        <f t="shared" si="0"/>
         <v>182.999808</v>
       </c>
       <c r="G25" s="15">
         <v>0.51134299999999999</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1342999999999992</v>
       </c>
       <c r="I25" s="15">
         <v>5.1562499999999997E-2</v>
       </c>
       <c r="J25" s="3">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="1"/>
+        <v>9.3519000000000023</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="2"/>
-        <v>198</v>
-      </c>
-      <c r="K25" s="16">
-        <f>(G25-C25)*100</f>
-        <v>9.3519000000000023</v>
-      </c>
-      <c r="L25" s="16">
-        <f>D25/K25</f>
         <v>0.87870913931928274</v>
       </c>
       <c r="M25" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>168.87870913931928</v>
       </c>
       <c r="N25" s="17">
         <v>0.5</v>
       </c>
       <c r="O25" s="18">
-        <f>J25-F25</f>
+        <f t="shared" si="3"/>
         <v>15.000191999999998</v>
       </c>
       <c r="P25" s="38">
-        <f>F25+O25*L25</f>
+        <f t="shared" si="4"/>
         <v>196.18061380194399</v>
       </c>
       <c r="Q25" s="25">
@@ -11766,15 +11936,15 @@
         <v>176</v>
       </c>
       <c r="T25" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="U25" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>13.878709139319284</v>
       </c>
       <c r="V25" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.1212908606807162</v>
       </c>
     </row>
@@ -11789,51 +11959,51 @@
         <v>0.483796</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.6203999999999996</v>
       </c>
       <c r="E26" s="10">
         <v>5.6510400000000002E-2</v>
       </c>
       <c r="F26" s="12">
-        <f>3840*E26</f>
+        <f t="shared" si="0"/>
         <v>216.99993600000002</v>
       </c>
       <c r="G26" s="10">
         <v>0.56458299999999995</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.4582999999999942</v>
       </c>
       <c r="I26" s="10">
         <v>6.25E-2</v>
       </c>
       <c r="J26" s="12">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="1"/>
+        <v>8.0786999999999942</v>
+      </c>
+      <c r="L26" s="11">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K26" s="11">
-        <f>(G26-C26)*100</f>
-        <v>8.0786999999999942</v>
-      </c>
-      <c r="L26" s="11">
-        <f>D26/K26</f>
         <v>0.20057682547934702</v>
       </c>
       <c r="M26" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30.200576825479349</v>
       </c>
       <c r="N26" s="13">
         <v>0.5</v>
       </c>
       <c r="O26" s="14">
-        <f>J26-F26</f>
+        <f t="shared" si="3"/>
         <v>23.000063999999981</v>
       </c>
       <c r="P26" s="40">
-        <f>F26+O26*L26</f>
+        <f t="shared" si="4"/>
         <v>221.61321582294184</v>
       </c>
       <c r="Q26" s="29">
@@ -11846,15 +12016,15 @@
         <v>38</v>
       </c>
       <c r="T26" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="U26" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11.200576825479349</v>
       </c>
       <c r="V26" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.7994231745206513</v>
       </c>
     </row>
@@ -11869,51 +12039,51 @@
         <v>0.45509300000000003</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.4906999999999977</v>
       </c>
       <c r="E27" s="15">
         <v>5.4166699999999998E-2</v>
       </c>
       <c r="F27" s="3">
-        <f>3840*E27</f>
+        <f t="shared" si="0"/>
         <v>208.00012799999999</v>
       </c>
       <c r="G27" s="15">
         <v>0.556481</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.6481000000000003</v>
       </c>
       <c r="I27" s="15">
         <v>5.9114600000000003E-2</v>
       </c>
       <c r="J27" s="3">
+        <f t="shared" si="7"/>
+        <v>227.00006400000001</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="1"/>
+        <v>10.138799999999998</v>
+      </c>
+      <c r="L27" s="16">
         <f t="shared" si="2"/>
-        <v>227.00006400000001</v>
-      </c>
-      <c r="K27" s="16">
-        <f>(G27-C27)*100</f>
-        <v>10.138799999999998</v>
-      </c>
-      <c r="L27" s="16">
-        <f>D27/K27</f>
         <v>0.44292223931826236</v>
       </c>
       <c r="M27" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100.44292223931826</v>
       </c>
       <c r="N27" s="17">
         <v>0.5</v>
       </c>
       <c r="O27" s="18">
-        <f>J27-F27</f>
+        <f t="shared" si="3"/>
         <v>18.999936000000019</v>
       </c>
       <c r="P27" s="38">
-        <f>F27+O27*L27</f>
+        <f t="shared" si="4"/>
         <v>216.41562220002368</v>
       </c>
       <c r="Q27" s="25">
@@ -11926,15 +12096,15 @@
         <v>107</v>
       </c>
       <c r="T27" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="U27" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12.442922239318264</v>
       </c>
       <c r="V27" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.5570777606817359</v>
       </c>
     </row>
@@ -11949,51 +12119,51 @@
         <v>0.43680600000000003</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.3193999999999972</v>
       </c>
       <c r="E28" s="5">
         <v>5.36458E-2</v>
       </c>
       <c r="F28" s="7">
-        <f>3840*E28</f>
+        <f t="shared" si="0"/>
         <v>205.99987200000001</v>
       </c>
       <c r="G28" s="5">
         <v>0.53472200000000003</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.4722000000000031</v>
       </c>
       <c r="I28" s="5">
         <v>6.0416699999999997E-2</v>
       </c>
       <c r="J28" s="7">
+        <f t="shared" si="7"/>
+        <v>232.00012799999999</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="1"/>
+        <v>9.7916000000000007</v>
+      </c>
+      <c r="L28" s="6">
         <f t="shared" si="2"/>
-        <v>232.00012799999999</v>
-      </c>
-      <c r="K28" s="6">
-        <f>(G28-C28)*100</f>
-        <v>9.7916000000000007</v>
-      </c>
-      <c r="L28" s="6">
-        <f>D28/K28</f>
         <v>0.64538992605907075</v>
       </c>
       <c r="M28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>179.64538992605907</v>
       </c>
       <c r="N28" s="8">
         <v>0.5</v>
       </c>
       <c r="O28" s="9">
-        <f>J28-F28</f>
+        <f t="shared" si="3"/>
         <v>26.000255999999979</v>
       </c>
       <c r="P28" s="39">
-        <f>F28+O28*L28</f>
+        <f t="shared" si="4"/>
         <v>222.78017529735692</v>
       </c>
       <c r="Q28" s="27">
@@ -12006,15 +12176,15 @@
         <v>187</v>
       </c>
       <c r="T28" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="U28" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15.645389926059067</v>
       </c>
       <c r="V28" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.3546100739409326</v>
       </c>
     </row>
@@ -12029,51 +12199,51 @@
         <v>0.44791700000000001</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.2082999999999995</v>
       </c>
       <c r="E29" s="15">
         <v>4.81771E-2</v>
       </c>
       <c r="F29" s="3">
-        <f>3840*E29</f>
+        <f t="shared" si="0"/>
         <v>185.00006400000001</v>
       </c>
       <c r="G29" s="15">
         <v>0.578009</v>
       </c>
       <c r="H29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7.8008999999999995</v>
       </c>
       <c r="I29" s="15">
         <v>5.4947900000000001E-2</v>
       </c>
       <c r="J29" s="3">
+        <f t="shared" si="7"/>
+        <v>210.99993599999999</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="1"/>
+        <v>13.009199999999998</v>
+      </c>
+      <c r="L29" s="16">
         <f t="shared" si="2"/>
-        <v>210.99993599999999</v>
-      </c>
-      <c r="K29" s="16">
-        <f>(G29-C29)*100</f>
-        <v>13.009199999999998</v>
-      </c>
-      <c r="L29" s="16">
-        <f>D29/K29</f>
         <v>0.40035513329028688</v>
       </c>
       <c r="M29" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26.400355133290287</v>
       </c>
       <c r="N29" s="17">
         <v>0.5</v>
       </c>
       <c r="O29" s="18">
-        <f>J29-F29</f>
+        <f t="shared" si="3"/>
         <v>25.999871999999982</v>
       </c>
       <c r="P29" s="38">
-        <f>F29+O29*L29</f>
+        <f t="shared" si="4"/>
         <v>195.40924622009041</v>
       </c>
       <c r="Q29" s="25">
@@ -12086,15 +12256,15 @@
         <v>32</v>
       </c>
       <c r="T29" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="U29" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.4003551332902866</v>
       </c>
       <c r="V29" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.5996448667097134</v>
       </c>
     </row>
@@ -12109,51 +12279,51 @@
         <v>0.49444399999999999</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.55560000000000054</v>
       </c>
       <c r="E30" s="15">
         <v>5.4947900000000001E-2</v>
       </c>
       <c r="F30" s="3">
-        <f>3840*E30</f>
+        <f t="shared" si="0"/>
         <v>210.99993599999999</v>
       </c>
       <c r="G30" s="15">
         <v>0.62615699999999996</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12.615699999999997</v>
       </c>
       <c r="I30" s="15">
         <v>5.9374999999999997E-2</v>
       </c>
       <c r="J30" s="3">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="1"/>
+        <v>13.171299999999997</v>
+      </c>
+      <c r="L30" s="16">
         <f t="shared" si="2"/>
-        <v>228</v>
-      </c>
-      <c r="K30" s="16">
-        <f>(G30-C30)*100</f>
-        <v>13.171299999999997</v>
-      </c>
-      <c r="L30" s="16">
-        <f>D30/K30</f>
         <v>4.2182624342320098E-2</v>
       </c>
       <c r="M30" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>50.042182624342317</v>
       </c>
       <c r="N30" s="17">
         <v>0.5</v>
       </c>
       <c r="O30" s="18">
-        <f>J30-F30</f>
+        <f t="shared" si="3"/>
         <v>17.000064000000009</v>
       </c>
       <c r="P30" s="38">
-        <f>F30+O30*L30</f>
+        <f t="shared" si="4"/>
         <v>211.71704331350739</v>
       </c>
       <c r="Q30" s="25">
@@ -12166,15 +12336,15 @@
         <v>56</v>
       </c>
       <c r="T30" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="U30" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12.042182624342317</v>
       </c>
       <c r="V30" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.9578173756576831</v>
       </c>
     </row>
@@ -12189,51 +12359,51 @@
         <v>0.48657400000000001</v>
       </c>
       <c r="D31" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3425999999999993</v>
       </c>
       <c r="E31" s="31">
         <v>4.81771E-2</v>
       </c>
       <c r="F31" s="33">
-        <f>3840*E31</f>
+        <f t="shared" si="0"/>
         <v>185.00006400000001</v>
       </c>
       <c r="G31" s="31">
         <v>0.61574099999999998</v>
       </c>
       <c r="H31" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11.574099999999998</v>
       </c>
       <c r="I31" s="31">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="J31" s="33">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="K31" s="32">
+        <f t="shared" si="1"/>
+        <v>12.916699999999997</v>
+      </c>
+      <c r="L31" s="32">
         <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="K31" s="32">
-        <f>(G31-C31)*100</f>
-        <v>12.916699999999997</v>
-      </c>
-      <c r="L31" s="32">
-        <f>D31/K31</f>
         <v>0.10394295756656109</v>
       </c>
       <c r="M31" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>77.103942957566559</v>
       </c>
       <c r="N31" s="34">
         <v>0.5</v>
       </c>
       <c r="O31" s="35">
-        <f>J31-F31</f>
+        <f t="shared" si="3"/>
         <v>30.999935999999991</v>
       </c>
       <c r="P31" s="41">
-        <f>F31+O31*L31</f>
+        <f t="shared" si="4"/>
         <v>188.22228903221412</v>
       </c>
       <c r="Q31" s="36">
@@ -12246,15 +12416,15 @@
         <v>84</v>
       </c>
       <c r="T31" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="U31" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.1039429575665594</v>
       </c>
       <c r="V31" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.8960570424334406</v>
       </c>
     </row>
